--- a/joython/macros/APSAIA_VUV.xlsx
+++ b/joython/macros/APSAIA_VUV.xlsx
@@ -1,125 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="26">
   <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Channels</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ChannelName</t>
-  </si>
-  <si>
-    <t>OverVoltage</t>
-  </si>
-  <si>
-    <t>Threshold</t>
-  </si>
-  <si>
-    <t>Nev</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>0 1 3 4 5</t>
-  </si>
-  <si>
-    <t>-1 -1 -1 -1 1</t>
-  </si>
-  <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>SiPM289 SiPM290 SiPM377 SiPM378 XARAPUCA</t>
-  </si>
-  <si>
-    <t>4 4 4 4 2</t>
-  </si>
-  <si>
-    <t>Calibration</t>
-  </si>
-  <si>
-    <t>3 3 3 3 2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4 4 4 4 2.5</t>
-  </si>
-  <si>
-    <t>5 5 5 5 3</t>
-  </si>
-  <si>
-    <t>4 4 4 4 3</t>
-  </si>
-  <si>
-    <t>Muon</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>Autotrigger</t>
+    <t xml:space="preserve">Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OverVoltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 -1 -1 -1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiPM289 SiPM290 SiPM377 SiPM378 XARAPUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 4 4 4 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 3 3 3 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 4 4 4 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 5 5 5 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 4 4 4 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autotrigger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,15 +142,8 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -146,375 +151,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F818D"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="55:1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="42.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="11.86"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +275,8 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="5">
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -568,24 +294,24 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="5" t="n">
         <v>20433</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="6" t="n">
         <v>600.99411568</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="6" t="n">
         <v>33.9986689834407</v>
       </c>
-      <c r="K2" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
-      <c r="A3" s="5">
+      <c r="K2" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -603,24 +329,24 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="n">
         <v>33310</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="6" t="n">
         <v>308.458418384</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="6" t="n">
         <v>107.988623473172</v>
       </c>
-      <c r="K3" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="5">
+      <c r="K3" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -638,24 +364,24 @@
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="6" t="n">
         <v>1000.124734432</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="6" t="n">
         <v>29.9972583090233</v>
       </c>
-      <c r="K4" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
-      <c r="A5" s="5">
+      <c r="K4" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -676,15 +402,21 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="5">
+      <c r="H5" s="5" t="n">
+        <v>50127</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>117.690207024</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>425.923288500783</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -705,21 +437,21 @@
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="6" t="n">
         <v>108.188284224</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="6" t="n">
         <v>463.331130163908</v>
       </c>
-      <c r="K6" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="5">
+      <c r="K6" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -740,21 +472,21 @@
       <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="6" t="n">
         <v>108.818282336</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="6" t="n">
         <v>460.648697295387</v>
       </c>
-      <c r="K7" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="5">
+      <c r="K7" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -772,24 +504,24 @@
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="n">
         <v>30002</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="6" t="n">
         <v>531.062543792</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="6" t="n">
         <v>56.4942874445139</v>
       </c>
-      <c r="K8" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="5">
+      <c r="K8" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -807,24 +539,24 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="5">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="6" t="n">
         <v>997.212650992</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="6" t="n">
         <v>30.0848569963045</v>
       </c>
-      <c r="K9" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="5">
+      <c r="K9" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -842,24 +574,24 @@
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5">
-        <v>17</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="6" t="n">
         <v>617.55857064</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="6" t="n">
         <v>48.5800075107189</v>
       </c>
-      <c r="K10" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="5">
+      <c r="K10" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -877,24 +609,24 @@
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5">
-        <v>17</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="6" t="n">
         <v>995.870991136</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="6" t="n">
         <v>30.1253879940589</v>
       </c>
-      <c r="K11" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="5">
+      <c r="K11" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -912,24 +644,24 @@
       <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="5" t="n">
         <v>13444</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="6" t="n">
         <v>43273.984805424</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="6" t="n">
         <v>0.310671643955352</v>
       </c>
-      <c r="K12" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="5">
+      <c r="K12" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -947,24 +679,24 @@
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5">
-        <v>17</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="6" t="n">
         <v>912.957492</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="6" t="n">
         <v>32.8613328253403</v>
       </c>
-      <c r="K13" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="5">
+      <c r="K13" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -982,24 +714,24 @@
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="n">
         <v>30002</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="6" t="n">
         <v>1029.468920864</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="6" t="n">
         <v>29.1431818794688</v>
       </c>
-      <c r="K14" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="5">
+      <c r="K14" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1017,24 +749,24 @@
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="5">
-        <v>17</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="6" t="n">
         <v>364.277031296</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="6" t="n">
         <v>82.357649323276</v>
       </c>
-      <c r="K15" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="5">
+      <c r="K15" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1052,24 +784,24 @@
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="5">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="6" t="n">
         <v>952.216401776</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="6" t="n">
         <v>31.5064936332166</v>
       </c>
-      <c r="K16" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="5">
+      <c r="K16" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1087,24 +819,24 @@
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="5">
-        <v>17</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="6" t="n">
         <v>808.69046264</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="6" t="n">
         <v>37.098248818294</v>
       </c>
-      <c r="K17" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="5">
+      <c r="K17" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1122,24 +854,24 @@
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="5">
-        <v>17</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="6" t="n">
         <v>1013.287319792</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="6" t="n">
         <v>29.6075944246084</v>
       </c>
-      <c r="K18" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="5">
+      <c r="K18" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1160,21 +892,21 @@
       <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="6" t="n">
         <v>109.122269968</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="6" t="n">
         <v>459.365444053718</v>
       </c>
-      <c r="K19" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="5">
+      <c r="K19" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1195,21 +927,21 @@
       <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="6" t="n">
         <v>108.794275856</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="6" t="n">
         <v>460.750343762093</v>
       </c>
-      <c r="K20" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
-      <c r="A21" s="5">
+      <c r="K20" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1230,21 +962,21 @@
       <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="6" t="n">
         <v>108.908289344</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="6" t="n">
         <v>460.267995227322</v>
       </c>
-      <c r="K21" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
-      <c r="A22" s="5">
+      <c r="K21" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1265,21 +997,21 @@
       <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="6" t="n">
         <v>109.172294688</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="6" t="n">
         <v>459.154954498816</v>
       </c>
-      <c r="K22" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
-      <c r="A23" s="5">
+      <c r="K22" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1300,21 +1032,21 @@
       <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="6" t="n">
         <v>108.643301312</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="6" t="n">
         <v>461.390618608377</v>
       </c>
-      <c r="K23" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
-      <c r="A24" s="5">
+      <c r="K23" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1335,21 +1067,21 @@
       <c r="G24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="5" t="n">
         <v>50127</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="6" t="n">
         <v>109.432300448</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="6" t="n">
         <v>458.064024924883</v>
       </c>
-      <c r="K24" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
-      <c r="A25" s="5">
+      <c r="K24" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1370,21 +1102,21 @@
       <c r="G25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="5" t="n">
         <v>30690</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="6" t="n">
         <v>66.271585264</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="6" t="n">
         <v>463.094399775455</v>
       </c>
-      <c r="K25" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
-      <c r="A26" s="5">
+      <c r="K25" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1405,21 +1137,21 @@
       <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="5" t="n">
         <v>30690</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="6" t="n">
         <v>66.177581968</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="6" t="n">
         <v>463.752211660439</v>
       </c>
-      <c r="K26" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
-      <c r="A27" s="5">
+      <c r="K26" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1440,21 +1172,21 @@
       <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="5" t="n">
         <v>30690</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="6" t="n">
         <v>66.244577136</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="6" t="n">
         <v>463.283204857561</v>
       </c>
-      <c r="K27" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
-      <c r="A28" s="5">
+      <c r="K27" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1475,21 +1207,21 @@
       <c r="G28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="5" t="n">
         <v>30690</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="6" t="n">
         <v>66.57557096</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="6" t="n">
         <v>460.97989934535</v>
       </c>
-      <c r="K28" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
-      <c r="A29" s="5">
+      <c r="K28" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1510,21 +1242,21 @@
       <c r="G29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="5" t="n">
         <v>30690</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="6" t="n">
         <v>66.148570512</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="6" t="n">
         <v>463.955604217215</v>
       </c>
-      <c r="K29" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="5">
+      <c r="K29" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1545,21 +1277,21 @@
       <c r="G30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="5" t="n">
         <v>30690</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="6" t="n">
         <v>66.47156584</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="6" t="n">
         <v>461.701174211424</v>
       </c>
-      <c r="K30" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="5">
+      <c r="K30" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1577,24 +1309,24 @@
       <c r="F31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="5">
-        <v>17</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="G31" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H31" s="5" t="n">
         <v>100254</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="6" t="n">
         <v>219.335697024</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="6" t="n">
         <v>457.080180564635</v>
       </c>
-      <c r="K31" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="5">
+      <c r="K31" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1612,24 +1344,24 @@
       <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="5">
-        <v>17</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H32" s="5" t="n">
         <v>100254</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="6" t="n">
         <v>218.040246336</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="6" t="n">
         <v>459.795848173408</v>
       </c>
-      <c r="K32" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="5">
+      <c r="K32" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1647,24 +1379,24 @@
       <c r="F33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="5">
-        <v>17</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G33" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H33" s="5" t="n">
         <v>100254</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="6" t="n">
         <v>217.731570608</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="6" t="n">
         <v>460.447695848828</v>
       </c>
-      <c r="K33" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="5">
+      <c r="K33" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1682,24 +1414,24 @@
       <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="5" t="n">
         <v>1148</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="6" t="n">
         <v>7105.073078544</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="6" t="n">
         <v>0.161574692801788</v>
       </c>
-      <c r="K34" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5">
+      <c r="K34" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1717,24 +1449,24 @@
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="5">
-        <v>17</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H35" s="5" t="n">
         <v>30003</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="6" t="n">
         <v>224.798461008</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="6" t="n">
         <v>133.466216207469</v>
       </c>
-      <c r="K35" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="5">
+      <c r="K35" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1752,24 +1484,24 @@
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="5">
-        <v>17</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="G36" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H36" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="6" t="n">
         <v>1031.147974544</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="6" t="n">
         <v>29.0947572420604</v>
       </c>
-      <c r="K36" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5">
+      <c r="K36" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1787,24 +1519,24 @@
       <c r="F37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="5">
-        <v>17</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G37" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H37" s="5" t="n">
         <v>30352</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="6" t="n">
         <v>276.4436984</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="6" t="n">
         <v>109.794508522608</v>
       </c>
-      <c r="K37" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5">
+      <c r="K37" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1822,24 +1554,24 @@
       <c r="F38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="5">
-        <v>17</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="G38" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H38" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="6" t="n">
         <v>971.143420416</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="6" t="n">
         <v>30.8924504551024</v>
       </c>
-      <c r="K38" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5">
+      <c r="K38" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1857,24 +1589,24 @@
       <c r="F39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="5">
-        <v>17</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="G39" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H39" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="6" t="n">
         <v>771.245923696</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="6" t="n">
         <v>38.899395223028</v>
       </c>
-      <c r="K39" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="5">
+      <c r="K39" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1892,24 +1624,24 @@
       <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="5">
-        <v>17</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="G40" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H40" s="5" t="n">
         <v>30001</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="6" t="n">
         <v>1040.708608352</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="6" t="n">
         <v>28.827473664802</v>
       </c>
-      <c r="K40" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="5">
+      <c r="K40" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1930,21 +1662,21 @@
       <c r="G41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="5" t="n">
         <v>30690</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="6" t="n">
         <v>77.7904527199999</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="6" t="n">
         <v>394.521421677106</v>
       </c>
-      <c r="K41" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="5">
+      <c r="K41" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1965,15 +1697,21 @@
       <c r="G42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="5">
+      <c r="H42" s="5" t="n">
+        <v>30690</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>80.24444072</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>382.456401024562</v>
+      </c>
+      <c r="K42" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1994,15 +1732,21 @@
       <c r="G43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="5">
+      <c r="H43" s="5" t="n">
+        <v>30690</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>77.129465744</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>397.902406090339</v>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2023,15 +1767,21 @@
       <c r="G44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="5">
+      <c r="H44" s="5" t="n">
+        <v>30690</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>79.567450432</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>385.710486302792</v>
+      </c>
+      <c r="K44" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2052,15 +1802,21 @@
       <c r="G45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="5">
+      <c r="H45" s="5" t="n">
+        <v>30690</v>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>80.883439872</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>379.434900995404</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2081,15 +1837,21 @@
       <c r="G46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="5">
+      <c r="H46" s="5" t="n">
+        <v>30690</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>81.077438288</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>378.527006378571</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2107,18 +1869,24 @@
       <c r="F47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="5">
+      <c r="H47" s="5" t="n">
+        <v>5613</v>
+      </c>
+      <c r="I47" s="6" t="n">
+        <v>49545.74455536</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>0.113289245128374</v>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2139,15 +1907,21 @@
       <c r="G48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="5">
+      <c r="H48" s="5" t="n">
+        <v>50127</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>108.607245616</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>461.543792181535</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2168,15 +1942,21 @@
       <c r="G49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="5">
+      <c r="H49" s="5" t="n">
+        <v>50127</v>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>109.225248256</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>458.932351268393</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2197,15 +1977,21 @@
       <c r="G50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="5">
+      <c r="H50" s="5" t="n">
+        <v>50127</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>109.152254352</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>459.239255273169</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2226,15 +2012,21 @@
       <c r="G51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="5">
+      <c r="H51" s="5" t="n">
+        <v>50127</v>
+      </c>
+      <c r="I51" s="6" t="n">
+        <v>109.191257008</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>459.075216950084</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2255,15 +2047,21 @@
       <c r="G52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="5">
+      <c r="H52" s="5" t="n">
+        <v>50127</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>108.601262976</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>461.569217763864</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2284,15 +2082,21 @@
       <c r="G53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="7">
-        <v>25569.0421875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="5">
+      <c r="H53" s="5" t="n">
+        <v>50127</v>
+      </c>
+      <c r="I53" s="6" t="n">
+        <v>108.52426392</v>
+      </c>
+      <c r="J53" s="6" t="n">
+        <v>461.896705762978</v>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>25569.0421875</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2310,17 +2114,29 @@
       <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="5">
-        <v>17</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="7">
+      <c r="G54" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>30506</v>
+      </c>
+      <c r="I54" s="6" t="n">
+        <v>171.138565696</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>178.253217653986</v>
+      </c>
+      <c r="K54" s="7" t="n">
         <v>25569.0421875</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>